--- a/docs/comparisson.xlsx
+++ b/docs/comparisson.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\_Code\Alexa-Marketing\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534621\Documents\_Code\Alexa-Marketing\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="12990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38370" windowHeight="12990" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dev" sheetId="1" r:id="rId1"/>
+    <sheet name="Mappings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>Project Id</t>
   </si>
@@ -62,24 +63,9 @@
     <t>Promo Code</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>PR</t>
-  </si>
-  <si>
     <t>On-Air</t>
   </si>
   <si>
-    <t>Digital</t>
-  </si>
-  <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Off Air</t>
-  </si>
-  <si>
     <t>VCD</t>
   </si>
   <si>
@@ -92,9 +78,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>SegmentType</t>
-  </si>
-  <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
@@ -144,16 +127,52 @@
   </si>
   <si>
     <t>video title, show title</t>
+  </si>
+  <si>
+    <t>NETWORK</t>
+  </si>
+  <si>
+    <t>AIR_DATE</t>
+  </si>
+  <si>
+    <t>SHOW_TITLE</t>
+  </si>
+  <si>
+    <t>SYNTEC</t>
+  </si>
+  <si>
+    <t>AIR_TIME</t>
+  </si>
+  <si>
+    <t>MAPPINGS</t>
+  </si>
+  <si>
+    <t>SegmentType = PROMO</t>
+  </si>
+  <si>
+    <t>VIDEO_LINK</t>
+  </si>
+  <si>
+    <t>Digital (Digital_Air-Date)</t>
+  </si>
+  <si>
+    <t>SOURCE_DB</t>
+  </si>
+  <si>
+    <t>PartitionKey: PROMO_TITLE</t>
+  </si>
+  <si>
+    <t>SortKey: SHOW_TITLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +195,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,8 +225,20 @@
         <fgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -213,11 +261,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -227,6 +284,21 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,166 +613,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
+      <c r="Q6" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
